--- a/passwords_data.xlsx
+++ b/passwords_data.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>saroor</t>
+          <t>addrf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hashem.kiany2018@gmail.com</t>
+          <t>xyz@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>rt0*T59)5&amp;3CbnZ4S%77</t>
+          <t>l25OD52BU1*#7%fI4C&amp;9</t>
         </is>
       </c>
     </row>
